--- a/market_code.xlsx
+++ b/market_code.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="15300"/>
+    <workbookView windowWidth="29868" windowHeight="15300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
@@ -1761,8 +1761,8 @@
   <sheetPr/>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="13.8"/>
@@ -2526,8 +2526,8 @@
   <sheetPr/>
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="13.8"/>
@@ -3508,7 +3508,7 @@
   <sheetPr/>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="G5" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
